--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/dtopasovabic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lainie Rowland\Desktop\GitHub Repos\state-eps-data-repository\RI\io-model\DToPaSoVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D58E8D-A4DF-924C-B0A1-7E07C7930C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2986F7E1-550E-4271-903B-4E9FA8B4F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="600" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1128">
   <si>
     <t>Source:</t>
   </si>
@@ -3412,6 +3412,15 @@
   </si>
   <si>
     <t>can be found in the OECD's "STAN Database for Structural Analysis," variable EMPN, at:</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
   </si>
 </sst>
 </file>
@@ -3791,7 +3800,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3938,7 +3947,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3954,6 +3962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -3984,7 +3993,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4272,20 +4280,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="2" max="2" width="77.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="86">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1" s="75">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4293,197 +4304,197 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="75" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="74" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="75" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="74" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="75" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="74" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>0.9686815713640794</v>
       </c>
@@ -4510,21 +4521,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="6" customWidth="1"/>
-    <col min="3" max="24" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="27.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.453125" style="6" customWidth="1"/>
+    <col min="3" max="24" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -4533,12 +4544,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
@@ -4582,7 +4593,7 @@
       <c r="AK3" s="84"/>
       <c r="AL3" s="85"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>4</v>
       </c>
@@ -4626,7 +4637,7 @@
       <c r="AK4" s="79"/>
       <c r="AL4" s="80"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
@@ -4670,7 +4681,7 @@
       <c r="AK5" s="79"/>
       <c r="AL5" s="80"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
@@ -4714,7 +4725,7 @@
       <c r="AK6" s="79"/>
       <c r="AL6" s="80"/>
     </row>
-    <row r="7" spans="1:38" ht="120" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>44</v>
       </c>
@@ -4828,7 +4839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>81</v>
       </c>
@@ -4944,7 +4955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>88</v>
       </c>
@@ -5060,7 +5071,7 @@
         <v>21351.7</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="20" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>89</v>
       </c>
@@ -5176,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="20" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>90</v>
       </c>
@@ -5292,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>91</v>
       </c>
@@ -5330,37 +5341,37 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
-    <col min="11" max="11" width="23.5" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="15" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="9" width="20.81640625" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" customWidth="1"/>
+    <col min="14" max="15" width="18.453125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" customWidth="1"/>
-    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="29" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>146</v>
       </c>
@@ -5419,7 +5430,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>117</v>
       </c>
@@ -5452,7 +5463,7 @@
       <c r="O4" s="30"/>
       <c r="S4" s="30"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>120</v>
       </c>
@@ -5506,7 +5517,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>123</v>
       </c>
@@ -5559,7 +5570,7 @@
       </c>
       <c r="S6" s="30"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>169</v>
       </c>
@@ -5614,12 +5625,12 @@
         <v>86048000000</v>
       </c>
       <c r="R7" s="34">
-        <f>D59*10^6</f>
-        <v>14508000000</v>
+        <f>SUM(D59,D392)*10^6</f>
+        <v>104319000000</v>
       </c>
       <c r="S7" s="30"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>126</v>
       </c>
@@ -5651,7 +5662,7 @@
         <v>513760000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>129</v>
       </c>
@@ -5720,14 +5731,14 @@
       </c>
       <c r="R9" s="37">
         <f>$S9*(R$7/$S$8)</f>
-        <v>8449972469.6356268</v>
+        <v>60759076237.932114</v>
       </c>
       <c r="S9" s="36">
         <f>I36*10^6</f>
         <v>299232000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>131</v>
       </c>
@@ -5793,14 +5804,14 @@
       </c>
       <c r="R10" s="37">
         <f t="shared" si="0"/>
-        <v>2192126720.6477733</v>
+        <v>15762370235.129244</v>
       </c>
       <c r="S10" s="36">
         <f>J36*10^6</f>
         <v>77628000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>171</v>
       </c>
@@ -5866,14 +5877,14 @@
       </c>
       <c r="R11" s="37">
         <f t="shared" si="0"/>
-        <v>1666403744.9392712</v>
+        <v>11982187225.552788</v>
       </c>
       <c r="S11" s="36">
         <f>K36*10^6</f>
         <v>59011000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>132</v>
       </c>
@@ -5939,56 +5950,44 @@
       </c>
       <c r="R12" s="37">
         <f t="shared" si="0"/>
-        <v>4591442004.048583</v>
+        <v>33014518777.25008</v>
       </c>
       <c r="S12" s="36">
         <f>L36*10^6</f>
         <v>162593000000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D15" s="68"/>
-      <c r="G15" s="68"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D16" s="68"/>
-      <c r="G16" s="68"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D17" s="68"/>
-      <c r="G17" s="68"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G25" s="1" t="s">
         <v>177</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>178</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>7310806</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>184</v>
       </c>
@@ -6083,7 +6082,7 @@
       </c>
       <c r="N28" s="21"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>187</v>
       </c>
@@ -6113,7 +6112,7 @@
       </c>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>190</v>
       </c>
@@ -6143,7 +6142,7 @@
       </c>
       <c r="N30" s="21"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>193</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>196</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>129835</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>199</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>86727</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>26971</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>205</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>16137</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>208</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>162593</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>211</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>227490</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>214</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>1037641</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>217</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>490800</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>220</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>11353</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>223</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>26135</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>226</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>25947</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>229</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>46896</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>232</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>54260</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>235</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>121224</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>238</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>28080</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>241</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>72921</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>244</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>68800</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>248</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>8477</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>251</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>26708</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>254</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>546841</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>257</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>128122</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>260</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>263</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>266</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>27760</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>269</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>13421</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>272</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>121879</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>275</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>216206</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>279</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>32875</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>283</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>422674</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>286</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>229589</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>289</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>210828</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>292</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>47193</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>295</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>19867</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>298</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>301</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>52871</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>304</v>
       </c>
@@ -7258,7 +7257,7 @@
         <v>20673</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>307</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>26712</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>310</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>28010</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>313</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>7898</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>316</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>532970</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>319</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>103343</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>322</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>46882</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>325</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>273993</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>328</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>108752</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>331</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>2577118</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>335</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>583890</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>339</v>
       </c>
@@ -7586,7 +7585,7 @@
         <v>306900</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>342</v>
       </c>
@@ -7618,7 +7617,7 @@
         <v>-1604</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>345</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>263076</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>348</v>
       </c>
@@ -7682,7 +7681,7 @@
         <v>15519</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>351</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>1993228</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>354</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>1840595</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>357</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>152633</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>360</v>
       </c>
@@ -7810,7 +7809,7 @@
         <v>571091</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>363</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>404035</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>366</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>99788</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>369</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>373</v>
       </c>
@@ -7938,7 +7937,7 @@
         <v>260034</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>376</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>37122</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>380</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>129933</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>383</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>111954</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>386</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>17979</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>389</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>269876</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>392</v>
       </c>
@@ -8130,7 +8129,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>395</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>225272</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>398</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>140714</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>401</v>
       </c>
@@ -8223,7 +8222,7 @@
         <v>74709</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>404</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>9849</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>407</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>208314</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>410</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>73075</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>413</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>52602</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>416</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>20473</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>419</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>135239</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>422</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>53331</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>425</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>81908</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>428</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>83782</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>431</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>517651</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>434</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>268250</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>437</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>263735</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>441</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>444</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>249400</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>447</v>
       </c>
@@ -8658,7 +8657,7 @@
         <v>192044</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>450</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>57356</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>453</v>
       </c>
@@ -8702,7 +8701,7 @@
       </c>
       <c r="I115" s="43"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>456</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>3268592</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>459</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>462</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>30700</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>464</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>9198</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>466</v>
       </c>
@@ -8775,7 +8774,7 @@
         <v>28981</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>468</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>21607</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>470</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>472</v>
       </c>
@@ -8808,7 +8807,7 @@
         <v>26748</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>474</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>476</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>478</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>21334</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>480</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>482</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>32747</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>484</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>486</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>6497</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>488</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>8423</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>490</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>8202</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>492</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>494</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>15140</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>496</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>498</v>
       </c>
@@ -8951,7 +8950,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>500</v>
       </c>
@@ -8962,7 +8961,7 @@
         <v>27555</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>502</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>10106</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>504</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>16822</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>506</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>27754</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>508</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>510</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>512</v>
       </c>
@@ -9028,7 +9027,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>514</v>
       </c>
@@ -9039,7 +9038,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>516</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>11611</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>518</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>12846</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>520</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>522</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>10778</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>524</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>11850</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>526</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>33887</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>528</v>
       </c>
@@ -9116,7 +9115,7 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>530</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>57088</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>532</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>20663</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>534</v>
       </c>
@@ -9149,7 +9148,7 @@
         <v>32586</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>536</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>28912</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>538</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>47917</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>540</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>542</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>11888</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>544</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>546</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>11523</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>548</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>17491</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>550</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>552</v>
       </c>
@@ -9248,7 +9247,7 @@
         <v>12072</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>554</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>556</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>558</v>
       </c>
@@ -9281,7 +9280,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>560</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>562</v>
       </c>
@@ -9303,7 +9302,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>564</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>566</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>568</v>
       </c>
@@ -9336,7 +9335,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>570</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>5125</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>572</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>574</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>10506</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>576</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>11675</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>578</v>
       </c>
@@ -9391,7 +9390,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>580</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>8071</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>582</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>584</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>586</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>588</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>590</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>10808</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>592</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>67427</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>594</v>
       </c>
@@ -9479,7 +9478,7 @@
         <v>267597</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>596</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>35528</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>598</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>600</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>10276</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>602</v>
       </c>
@@ -9523,7 +9522,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>604</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>14299</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>606</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>34899</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>608</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>25253</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>610</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>38361</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>612</v>
       </c>
@@ -9578,7 +9577,7 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>614</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>37764</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>616</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>68959</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>618</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>26026</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>620</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>137534</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>622</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>50032</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>624</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>626</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>628</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>5902</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>630</v>
       </c>
@@ -9677,7 +9676,7 @@
         <v>21968</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>632</v>
       </c>
@@ -9688,7 +9687,7 @@
         <v>26079</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>634</v>
       </c>
@@ -9699,7 +9698,7 @@
         <v>9645</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>636</v>
       </c>
@@ -9710,7 +9709,7 @@
         <v>6712</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>638</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>640</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>9213</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>642</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>644</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>11419</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>646</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>648</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>650</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>652</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>654</v>
       </c>
@@ -9809,7 +9808,7 @@
         <v>17274</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>656</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>658</v>
       </c>
@@ -9831,7 +9830,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>660</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>36144</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>662</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>664</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>666</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>668</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>670</v>
       </c>
@@ -9897,7 +9896,7 @@
         <v>10355</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>672</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>674</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>676</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>13946</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>678</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>30899</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>680</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>22672</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>682</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>34308</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>684</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>19639</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>686</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>10510</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>688</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>690</v>
       </c>
@@ -10007,7 +10006,7 @@
         <v>35390</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>692</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>9839</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>694</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>34461</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>696</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>32490</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>698</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>119</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>701</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>24834</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>703</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>705</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>707</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>63516</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>709</v>
       </c>
@@ -10117,7 +10116,7 @@
         <v>151763</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>711</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>13437</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>713</v>
       </c>
@@ -10139,7 +10138,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>715</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>28299</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>717</v>
       </c>
@@ -10161,7 +10160,7 @@
         <v>35923</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>719</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>13989</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>721</v>
       </c>
@@ -10183,7 +10182,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>723</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>18967</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>725</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>26996</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>727</v>
       </c>
@@ -10216,7 +10215,7 @@
         <v>47738</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>729</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>33801</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>731</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>20987</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>733</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>17027</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>735</v>
       </c>
@@ -10260,7 +10259,7 @@
         <v>55533</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>737</v>
       </c>
@@ -10271,7 +10270,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>739</v>
       </c>
@@ -10282,7 +10281,7 @@
         <v>13469</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>741</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>7913</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>743</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>745</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>747</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>10139</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>749</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>11575</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>751</v>
       </c>
@@ -10348,7 +10347,7 @@
         <v>7059</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>753</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>6202</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>755</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>757</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>29952</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>759</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>761</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>20873</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>763</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>765</v>
       </c>
@@ -10425,7 +10424,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>767</v>
       </c>
@@ -10436,7 +10435,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>769</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>771</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>773</v>
       </c>
@@ -10469,7 +10468,7 @@
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>775</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>777</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>779</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>781</v>
       </c>
@@ -10512,8 +10511,11 @@
       <c r="D278" s="43">
         <v>49895</v>
       </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E278" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>783</v>
       </c>
@@ -10523,8 +10525,11 @@
       <c r="D279" s="43">
         <v>7020</v>
       </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E279" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>785</v>
       </c>
@@ -10534,8 +10539,11 @@
       <c r="D280" s="43">
         <v>6964</v>
       </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E280" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>787</v>
       </c>
@@ -10545,8 +10553,11 @@
       <c r="D281" s="43">
         <v>31879</v>
       </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E281" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>789</v>
       </c>
@@ -10556,8 +10567,11 @@
       <c r="D282" s="43">
         <v>117887</v>
       </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E282" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>791</v>
       </c>
@@ -10567,8 +10581,11 @@
       <c r="D283" s="43">
         <v>85442</v>
       </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E283" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>793</v>
       </c>
@@ -10578,8 +10595,11 @@
       <c r="D284" s="43">
         <v>14641</v>
       </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E284" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>795</v>
       </c>
@@ -10589,8 +10609,11 @@
       <c r="D285" s="43">
         <v>14749</v>
       </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E285" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>797</v>
       </c>
@@ -10600,8 +10623,11 @@
       <c r="D286" s="43">
         <v>208145</v>
       </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E286" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>799</v>
       </c>
@@ -10611,8 +10637,11 @@
       <c r="D287" s="43">
         <v>15995</v>
       </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E287" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>801</v>
       </c>
@@ -10622,8 +10651,11 @@
       <c r="D288" s="43">
         <v>30712</v>
       </c>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E288" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>803</v>
       </c>
@@ -10633,8 +10665,11 @@
       <c r="D289" s="43">
         <v>19911</v>
       </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E289" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>805</v>
       </c>
@@ -10644,8 +10679,11 @@
       <c r="D290" s="43">
         <v>15067</v>
       </c>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E290" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>807</v>
       </c>
@@ -10655,8 +10693,11 @@
       <c r="D291" s="43">
         <v>27773</v>
       </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E291" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>809</v>
       </c>
@@ -10666,8 +10707,11 @@
       <c r="D292" s="43">
         <v>12847</v>
       </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E292" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>811</v>
       </c>
@@ -10677,8 +10721,11 @@
       <c r="D293" s="43">
         <v>38140</v>
       </c>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E293" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>813</v>
       </c>
@@ -10688,8 +10735,11 @@
       <c r="D294" s="43">
         <v>42475</v>
       </c>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E294" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>815</v>
       </c>
@@ -10699,8 +10749,11 @@
       <c r="D295" s="43">
         <v>5006</v>
       </c>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E295" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>817</v>
       </c>
@@ -10710,8 +10763,11 @@
       <c r="D296" s="43">
         <v>40978</v>
       </c>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E296" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>819</v>
       </c>
@@ -10722,7 +10778,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
         <v>821</v>
       </c>
@@ -10733,7 +10789,7 @@
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
         <v>823</v>
       </c>
@@ -10744,7 +10800,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B300" t="s">
         <v>825</v>
       </c>
@@ -10755,7 +10811,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>827</v>
       </c>
@@ -10766,7 +10822,7 @@
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>829</v>
       </c>
@@ -10777,7 +10833,7 @@
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>831</v>
       </c>
@@ -10788,7 +10844,7 @@
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>833</v>
       </c>
@@ -10799,7 +10855,7 @@
         <v>20488</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>835</v>
       </c>
@@ -10810,7 +10866,7 @@
         <v>5369</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>837</v>
       </c>
@@ -10821,7 +10877,7 @@
         <v>17928</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
         <v>839</v>
       </c>
@@ -10832,7 +10888,7 @@
         <v>124484</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>841</v>
       </c>
@@ -10843,7 +10899,7 @@
         <v>219053</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>843</v>
       </c>
@@ -10854,7 +10910,7 @@
         <v>171121</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>845</v>
       </c>
@@ -10865,7 +10921,7 @@
         <v>179070</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>847</v>
       </c>
@@ -10876,7 +10932,7 @@
         <v>242634</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>849</v>
       </c>
@@ -10887,7 +10943,7 @@
         <v>176440</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>851</v>
       </c>
@@ -10898,7 +10954,7 @@
         <v>148392</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>853</v>
       </c>
@@ -10909,7 +10965,7 @@
         <v>146367</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>855</v>
       </c>
@@ -10920,7 +10976,7 @@
         <v>322061</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>857</v>
       </c>
@@ -10931,7 +10987,7 @@
         <v>83011</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>859</v>
       </c>
@@ -10942,7 +10998,7 @@
         <v>38123</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>861</v>
       </c>
@@ -10953,7 +11009,7 @@
         <v>279078</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>863</v>
       </c>
@@ -10964,7 +11020,7 @@
         <v>227964</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>865</v>
       </c>
@@ -10975,7 +11031,7 @@
         <v>230215</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B321" t="s">
         <v>867</v>
       </c>
@@ -10986,7 +11042,7 @@
         <v>140227</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>869</v>
       </c>
@@ -10997,7 +11053,7 @@
         <v>101522</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>871</v>
       </c>
@@ -11008,7 +11064,7 @@
         <v>92474</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>873</v>
       </c>
@@ -11019,7 +11075,7 @@
         <v>137915</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>875</v>
       </c>
@@ -11030,7 +11086,7 @@
         <v>229646</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>877</v>
       </c>
@@ -11041,7 +11097,7 @@
         <v>57722</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>879</v>
       </c>
@@ -11052,7 +11108,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>881</v>
       </c>
@@ -11063,7 +11119,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>883</v>
       </c>
@@ -11074,7 +11130,7 @@
         <v>68922</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
         <v>885</v>
       </c>
@@ -11085,7 +11141,7 @@
         <v>211318</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B331" t="s">
         <v>887</v>
       </c>
@@ -11096,7 +11152,7 @@
         <v>82025</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
         <v>889</v>
       </c>
@@ -11107,7 +11163,7 @@
         <v>47194</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>891</v>
       </c>
@@ -11118,7 +11174,7 @@
         <v>332550</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>893</v>
       </c>
@@ -11129,7 +11185,7 @@
         <v>65769</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B335" t="s">
         <v>895</v>
       </c>
@@ -11140,7 +11196,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>897</v>
       </c>
@@ -11151,7 +11207,7 @@
         <v>137453</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>899</v>
       </c>
@@ -11162,7 +11218,7 @@
         <v>80430</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B338" t="s">
         <v>901</v>
       </c>
@@ -11173,7 +11229,7 @@
         <v>120074</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B339" t="s">
         <v>903</v>
       </c>
@@ -11184,7 +11240,7 @@
         <v>27110</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B340" t="s">
         <v>905</v>
       </c>
@@ -11195,7 +11251,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>907</v>
       </c>
@@ -11206,7 +11262,7 @@
         <v>38375</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B342" t="s">
         <v>909</v>
       </c>
@@ -11217,7 +11273,7 @@
         <v>14438</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
         <v>911</v>
       </c>
@@ -11228,7 +11284,7 @@
         <v>212383</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>913</v>
       </c>
@@ -11239,7 +11295,7 @@
         <v>126697</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
         <v>915</v>
       </c>
@@ -11250,7 +11306,7 @@
         <v>16643</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>917</v>
       </c>
@@ -11261,7 +11317,7 @@
         <v>83920</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>919</v>
       </c>
@@ -11272,7 +11328,7 @@
         <v>97373</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>921</v>
       </c>
@@ -11283,7 +11339,7 @@
         <v>334092</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>923</v>
       </c>
@@ -11294,7 +11350,7 @@
         <v>261627</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>925</v>
       </c>
@@ -11305,7 +11361,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B351" t="s">
         <v>927</v>
       </c>
@@ -11316,7 +11372,7 @@
         <v>148620</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
         <v>929</v>
       </c>
@@ -11327,7 +11383,7 @@
         <v>132937</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B353" t="s">
         <v>931</v>
       </c>
@@ -11338,7 +11394,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B354" t="s">
         <v>933</v>
       </c>
@@ -11349,7 +11405,7 @@
         <v>296293</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B355" t="s">
         <v>935</v>
       </c>
@@ -11360,7 +11416,7 @@
         <v>520425</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B356" t="s">
         <v>937</v>
       </c>
@@ -11371,7 +11427,7 @@
         <v>349439</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>939</v>
       </c>
@@ -11382,7 +11438,7 @@
         <v>218793</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>941</v>
       </c>
@@ -11393,7 +11449,7 @@
         <v>88034</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>943</v>
       </c>
@@ -11404,7 +11460,7 @@
         <v>586732</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B360" t="s">
         <v>945</v>
       </c>
@@ -11415,7 +11471,7 @@
         <v>344723</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B361" t="s">
         <v>947</v>
       </c>
@@ -11426,7 +11482,7 @@
         <v>163544</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B362" t="s">
         <v>949</v>
       </c>
@@ -11437,7 +11493,7 @@
         <v>1416584</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>951</v>
       </c>
@@ -11448,7 +11504,7 @@
         <v>530391</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>953</v>
       </c>
@@ -11459,7 +11515,7 @@
         <v>1123901</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B365" t="s">
         <v>955</v>
       </c>
@@ -11470,7 +11526,7 @@
         <v>61256</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>957</v>
       </c>
@@ -11481,7 +11537,7 @@
         <v>77621</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B367" t="s">
         <v>959</v>
       </c>
@@ -11492,7 +11548,7 @@
         <v>29242</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B368" t="s">
         <v>961</v>
       </c>
@@ -11503,7 +11559,7 @@
         <v>161188</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>963</v>
       </c>
@@ -11514,7 +11570,7 @@
         <v>331383</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
         <v>965</v>
       </c>
@@ -11525,7 +11581,7 @@
         <v>155017</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B371" t="s">
         <v>967</v>
       </c>
@@ -11536,7 +11592,7 @@
         <v>163308</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>969</v>
       </c>
@@ -11547,7 +11603,7 @@
         <v>63364</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B373" t="s">
         <v>971</v>
       </c>
@@ -11558,7 +11614,7 @@
         <v>193482</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>973</v>
       </c>
@@ -11569,7 +11625,7 @@
         <v>311584</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>975</v>
       </c>
@@ -11580,7 +11636,7 @@
         <v>232966</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>977</v>
       </c>
@@ -11591,7 +11647,7 @@
         <v>49844</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B377" t="s">
         <v>979</v>
       </c>
@@ -11602,7 +11658,7 @@
         <v>202086</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>981</v>
       </c>
@@ -11613,7 +11669,7 @@
         <v>125875</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>983</v>
       </c>
@@ -11624,7 +11680,7 @@
         <v>33044</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>985</v>
       </c>
@@ -11635,7 +11691,7 @@
         <v>11848</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>987</v>
       </c>
@@ -11646,7 +11702,7 @@
         <v>36577</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B382" t="s">
         <v>989</v>
       </c>
@@ -11657,7 +11713,7 @@
         <v>88795</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>991</v>
       </c>
@@ -11668,7 +11724,7 @@
         <v>561730</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>993</v>
       </c>
@@ -11679,7 +11735,7 @@
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>995</v>
       </c>
@@ -11690,7 +11746,7 @@
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>997</v>
       </c>
@@ -11701,7 +11757,7 @@
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>999</v>
       </c>
@@ -11712,7 +11768,7 @@
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>1001</v>
       </c>
@@ -11723,7 +11779,7 @@
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>1003</v>
       </c>
@@ -11734,7 +11790,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>1005</v>
       </c>
@@ -11745,7 +11801,7 @@
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B391" t="s">
         <v>1007</v>
       </c>
@@ -11756,18 +11812,21 @@
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>1009</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="49" t="s">
         <v>1010</v>
       </c>
       <c r="D392" s="43">
         <v>89811</v>
       </c>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E392" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>1011</v>
       </c>
@@ -11778,7 +11837,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>1013</v>
       </c>
@@ -11789,7 +11848,7 @@
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B395" t="s">
         <v>1015</v>
       </c>
@@ -11800,7 +11859,7 @@
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>1017</v>
       </c>
@@ -11811,7 +11870,7 @@
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B397" t="s">
         <v>1019</v>
       </c>
@@ -11822,7 +11881,7 @@
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B398" t="s">
         <v>1021</v>
       </c>
@@ -11833,7 +11892,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B399" t="s">
         <v>1023</v>
       </c>
@@ -11844,7 +11903,7 @@
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B400" t="s">
         <v>1025</v>
       </c>
@@ -11855,7 +11914,7 @@
         <v>53964</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B401" t="s">
         <v>1027</v>
       </c>
@@ -11866,7 +11925,7 @@
         <v>75155</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B402" t="s">
         <v>1029</v>
       </c>
@@ -11877,7 +11936,7 @@
         <v>35396</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B403" t="s">
         <v>1031</v>
       </c>
@@ -11888,7 +11947,7 @@
         <v>813054</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B404" t="s">
         <v>1033</v>
       </c>
@@ -11899,7 +11958,7 @@
         <v>184319</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B405" t="s">
         <v>1035</v>
       </c>
@@ -11910,7 +11969,7 @@
         <v>46401</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B406" t="s">
         <v>1037</v>
       </c>
@@ -11921,7 +11980,7 @@
         <v>93433</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B407" t="s">
         <v>1039</v>
       </c>
@@ -11932,7 +11991,7 @@
         <v>48681</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B408" t="s">
         <v>1041</v>
       </c>
@@ -11943,7 +12002,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B409" t="s">
         <v>1043</v>
       </c>
@@ -11954,7 +12013,7 @@
         <v>22884</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>1045</v>
       </c>
@@ -11965,7 +12024,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B411" t="s">
         <v>1047</v>
       </c>
@@ -11976,7 +12035,7 @@
         <v>41997</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B412" t="s">
         <v>1049</v>
       </c>
@@ -11987,7 +12046,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B413" t="s">
         <v>1051</v>
       </c>
@@ -11998,7 +12057,7 @@
         <v>14730</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B414" t="s">
         <v>1053</v>
       </c>
@@ -12009,7 +12068,7 @@
         <v>18301</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>1055</v>
       </c>
@@ -12020,7 +12079,7 @@
         <v>35926</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B416" t="s">
         <v>1057</v>
       </c>
@@ -12031,7 +12090,7 @@
         <v>81758</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B417" t="s">
         <v>1059</v>
       </c>
@@ -12042,7 +12101,7 @@
         <v>258628</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
         <v>1061</v>
       </c>
@@ -12053,7 +12112,7 @@
         <v>336211</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B419" t="s">
         <v>1063</v>
       </c>
@@ -12064,7 +12123,7 @@
         <v>303694</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B420" t="s">
         <v>1065</v>
       </c>
@@ -12075,7 +12134,7 @@
         <v>98573</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B421" t="s">
         <v>1067</v>
       </c>
@@ -12086,7 +12145,7 @@
         <v>120747</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B422" t="s">
         <v>1069</v>
       </c>
@@ -12097,7 +12156,7 @@
         <v>22166</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>1071</v>
       </c>
@@ -12108,7 +12167,7 @@
         <v>37604</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
         <v>1073</v>
       </c>
@@ -12119,7 +12178,7 @@
         <v>22329</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
         <v>1075</v>
       </c>
@@ -12130,7 +12189,7 @@
         <v>80111</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>1077</v>
       </c>
@@ -12141,7 +12200,7 @@
         <v>20088</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B427" t="s">
         <v>1079</v>
       </c>
@@ -12152,7 +12211,7 @@
         <v>28962</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
         <v>1081</v>
       </c>
@@ -12163,7 +12222,7 @@
         <v>62899</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B429" t="s">
         <v>1083</v>
       </c>
@@ -12174,7 +12233,7 @@
         <v>93020</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B430" t="s">
         <v>1085</v>
       </c>
@@ -12185,7 +12244,7 @@
         <v>57520</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>1087</v>
       </c>
@@ -12196,7 +12255,7 @@
         <v>75682</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
         <v>1089</v>
       </c>
@@ -12207,7 +12266,7 @@
         <v>21314</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B433" t="s">
         <v>1091</v>
       </c>
@@ -12218,7 +12277,7 @@
         <v>613306</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>1093</v>
       </c>
@@ -12229,7 +12288,7 @@
         <v>390322</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B435" t="s">
         <v>1095</v>
       </c>
@@ -12240,7 +12299,7 @@
         <v>62768</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>1097</v>
       </c>
@@ -12251,7 +12310,7 @@
         <v>13843</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B437" t="s">
         <v>1099</v>
       </c>
@@ -12262,7 +12321,7 @@
         <v>17451</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
         <v>1101</v>
       </c>
@@ -12273,7 +12332,7 @@
         <v>974593</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B439" t="s">
         <v>1103</v>
       </c>
@@ -12284,7 +12343,7 @@
         <v>286138</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>1105</v>
       </c>
@@ -12295,7 +12354,7 @@
         <v>879668</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B441" t="s">
         <v>1107</v>
       </c>
@@ -12306,7 +12365,7 @@
         <v>16399</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B442" t="s">
         <v>1109</v>
       </c>
@@ -12317,7 +12376,7 @@
         <v>62898</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B443" t="s">
         <v>1111</v>
       </c>
@@ -12330,10 +12389,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{B5579375-C498-4002-96D3-8F4425FD980D}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{25BB6CA8-B61B-4BD2-BA01-105A06EF14A4}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{0F00647C-6D03-4E62-A3E4-AA5737E9FE43}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{944A3612-1AB2-43EA-A0EF-44B3D588A2C0}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{0A2CDDC6-8248-44B3-AA12-610A57421684}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{CEC2967C-5861-49FB-8980-BEFC6FF4727A}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{3761CBAC-F8BA-4960-A726-EC1941E66D35}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{2767DD6C-02C9-414F-8622-AF4FAEE28C1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
@@ -12346,22 +12405,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="65"/>
       <c r="B1" s="66" t="s">
         <v>144</v>
@@ -12397,7 +12456,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61"/>
       <c r="B2" s="52" t="s">
         <v>142</v>
@@ -12433,7 +12492,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="62" t="s">
         <v>111</v>
       </c>
@@ -12471,18 +12530,18 @@
       </c>
       <c r="J3" s="54">
         <f>'U.S. Data for ISIC Splits'!P10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
-        <v>0.80427475032164764</v>
+        <v>0.68459935185860177</v>
       </c>
       <c r="K3" s="63">
         <f>'U.S. Data for ISIC Splits'!Q10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
-        <v>0.16748643824657769</v>
+        <v>0.14256459875540944</v>
       </c>
       <c r="L3" s="55">
         <f>'U.S. Data for ISIC Splits'!R10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
-        <v>2.8238811431774698E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.17283604938598873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="62" t="s">
         <v>112</v>
       </c>
@@ -12520,18 +12579,18 @@
       </c>
       <c r="J4" s="54">
         <f>'U.S. Data for ISIC Splits'!P11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
-        <v>0.80427475032164764</v>
+        <v>0.68459935185860166</v>
       </c>
       <c r="K4" s="63">
         <f>'U.S. Data for ISIC Splits'!Q11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
-        <v>0.16748643824657769</v>
+        <v>0.14256459875540944</v>
       </c>
       <c r="L4" s="55">
         <f>'U.S. Data for ISIC Splits'!R11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
-        <v>2.8238811431774698E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.17283604938598873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="62" t="s">
         <v>113</v>
       </c>
@@ -12569,15 +12628,15 @@
       </c>
       <c r="J5" s="56">
         <f>'U.S. Data for ISIC Splits'!P12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
-        <v>0.80427475032164764</v>
+        <v>0.68459935185860177</v>
       </c>
       <c r="K5" s="64">
         <f>'U.S. Data for ISIC Splits'!Q12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
-        <v>0.16748643824657769</v>
+        <v>0.14256459875540944</v>
       </c>
       <c r="L5" s="57">
         <f>'U.S. Data for ISIC Splits'!R12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
-        <v>2.8238811431774695E-2</v>
+        <v>0.17283604938598873</v>
       </c>
     </row>
   </sheetData>
@@ -12595,26 +12654,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="26" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="26" width="10.1796875" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="29" max="43" width="10.1640625" customWidth="1"/>
+    <col min="28" max="28" width="11.7265625" customWidth="1"/>
+    <col min="29" max="43" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -12638,25 +12697,25 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="69" t="s">
         <v>107</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="68" t="s">
         <v>1113</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="69" t="s">
         <v>1114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="68" t="s">
         <v>1118</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="69" t="s">
         <v>1119</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -12680,13 +12739,13 @@
       <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="69" t="s">
+      <c r="Z1" s="68" t="s">
         <v>1115</v>
       </c>
-      <c r="AA1" s="74" t="s">
+      <c r="AA1" s="73" t="s">
         <v>1116</v>
       </c>
-      <c r="AB1" s="70" t="s">
+      <c r="AB1" s="69" t="s">
         <v>1117</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -12735,7 +12794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
@@ -12743,11 +12802,11 @@
         <f>'OECD VAL'!C10/SUM('OECD VAL'!C9:C11)</f>
         <v>6.1517190580761986E-2</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="70">
         <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!B$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!B$3:B$5)</f>
         <v>4.9495022154874085E-2</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="71">
         <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!C$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!C$3:C$5)</f>
         <v>0.10511453602057504</v>
       </c>
@@ -12779,11 +12838,11 @@
         <f>'OECD VAL'!K10/SUM('OECD VAL'!K9:K11)</f>
         <v>2.1425789482983619E-2</v>
       </c>
-      <c r="L2" s="71">
+      <c r="L2" s="70">
         <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!D$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!D$3:D$5)</f>
         <v>3.484244036412798E-2</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="71">
         <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!E$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!E$3:E$5)</f>
         <v>3.484244036412798E-2</v>
       </c>
@@ -12791,19 +12850,19 @@
         <f>'OECD VAL'!M10/SUM('OECD VAL'!M9:M11)</f>
         <v>2.1680370671842714E-2</v>
       </c>
-      <c r="O2" s="71">
+      <c r="O2" s="70">
         <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!F$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!F$3:F$5)</f>
         <v>2.8480429060816683E-2</v>
       </c>
-      <c r="P2" s="72">
+      <c r="P2" s="71">
         <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!G$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!G$3:G$5)</f>
         <v>2.848042906081668E-2</v>
       </c>
-      <c r="Q2" s="71">
+      <c r="Q2" s="70">
         <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!H$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!H$3:H$5)</f>
         <v>4.3506251471436601E-2</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="71">
         <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!I$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!I$3:I$5)</f>
         <v>4.3506251471436608E-2</v>
       </c>
@@ -12835,15 +12894,15 @@
         <f>'OECD VAL'!V10/SUM('OECD VAL'!V9:V11)</f>
         <v>1.9698422822110023E-2</v>
       </c>
-      <c r="Z2" s="71">
+      <c r="Z2" s="70">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!J$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!J$3:J$5)</f>
-        <v>0.13319579866756548</v>
-      </c>
-      <c r="AA2" s="73">
+        <v>0.13319579866756545</v>
+      </c>
+      <c r="AA2" s="72">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!K$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!K$3:K$5)</f>
         <v>0.13319579866756548</v>
       </c>
-      <c r="AB2" s="72">
+      <c r="AB2" s="71">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!L$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!L$3:L$5)</f>
         <v>0.13319579866756548</v>
       </c>
@@ -12908,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="Q3" s="62"/>
     </row>
   </sheetData>
